--- a/Data/circuitos.xlsx
+++ b/Data/circuitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Grupo EPM\OyC\Consultas SQL\Zonas_operativas\Zonas con nodos\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epmco-my.sharepoint.com/personal/alejandro_a_lopez_edeq_com_co/Documents/OyC/Consultas SQL/Zonas_operativas/Zonas con nodos/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60CB53D-E97C-43B6-8BA9-49FF20F59AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A60CB53D-E97C-43B6-8BA9-49FF20F59AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D138B49-31F0-4DCF-9999-7D8E474599F0}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="1980" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{35785D1F-8DA5-4ED7-BCDA-3FF7944CA81C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35785D1F-8DA5-4ED7-BCDA-3FF7944CA81C}"/>
   </bookViews>
   <sheets>
     <sheet name="Codigos Ctos" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="199">
   <si>
     <t>La Tebaida</t>
   </si>
@@ -638,10 +638,10 @@
     <t xml:space="preserve">Nombre Circuito </t>
   </si>
   <si>
-    <t xml:space="preserve">Codigo </t>
-  </si>
-  <si>
     <t>Circuito</t>
+  </si>
+  <si>
+    <t>Subterraneo 3</t>
   </si>
 </sst>
 </file>
@@ -1044,11 +1044,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E011E197-E0E7-43E6-B925-6CB10EB2E647}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="A1:B2"/>
+      <selection pane="bottomRight" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1869,10 +1869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1AA522-AE76-4FBD-B716-FE8F7757A30D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,7 +1882,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>196</v>
@@ -1894,6 +1894,38 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Data/circuitos.xlsx
+++ b/Data/circuitos.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epmco-my.sharepoint.com/personal/alejandro_a_lopez_edeq_com_co/Documents/OyC/Consultas SQL/Zonas_operativas/Zonas con nodos/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{A60CB53D-E97C-43B6-8BA9-49FF20F59AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D138B49-31F0-4DCF-9999-7D8E474599F0}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{A60CB53D-E97C-43B6-8BA9-49FF20F59AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A48BDDA3-D279-483A-AE72-6096AD205002}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35785D1F-8DA5-4ED7-BCDA-3FF7944CA81C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Codigos Ctos" sheetId="2" r:id="rId1"/>
-    <sheet name="Prueba" sheetId="3" r:id="rId2"/>
+    <sheet name="Ctos 13.2kV" sheetId="4" r:id="rId1"/>
+    <sheet name="Codigos Ctos" sheetId="2" r:id="rId2"/>
+    <sheet name="Prueba" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Codigos Ctos'!$A$1:$B$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codigos Ctos'!$A$1:$B$100</definedName>
     <definedName name="_xlnm.Database">#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Codigos Ctos'!$1:$1</definedName>
-    <definedName name="UR" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'Codigos Ctos'!$1:$1</definedName>
+    <definedName name="UR" localSheetId="1">#REF!</definedName>
     <definedName name="UR">#REF!</definedName>
-    <definedName name="Z_C938BF2C_84B0_4CAA_9134_AFC7745EC84F_.wvu.PrintTitles" localSheetId="0" hidden="1">'Codigos Ctos'!$1:$1</definedName>
+    <definedName name="Z_C938BF2C_84B0_4CAA_9134_AFC7745EC84F_.wvu.PrintTitles" localSheetId="1" hidden="1">'Codigos Ctos'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="199">
   <si>
     <t>La Tebaida</t>
   </si>
@@ -1041,14 +1042,560 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6FA8074-2FA8-43AF-9303-70A2F71E7DA0}">
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E011E197-E0E7-43E6-B925-6CB10EB2E647}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" sqref="A1:B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1106,7 +1653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1114,7 +1661,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1122,7 +1669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1194,7 +1741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
@@ -1202,7 +1749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1250,7 +1797,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>62</v>
       </c>
@@ -1258,7 +1805,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
@@ -1266,7 +1813,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
@@ -1306,7 +1853,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -1314,7 +1861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -1346,7 +1893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>97</v>
       </c>
@@ -1354,7 +1901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>99</v>
       </c>
@@ -1362,7 +1909,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>102</v>
       </c>
@@ -1370,7 +1917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>105</v>
       </c>
@@ -1402,7 +1949,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>122</v>
       </c>
@@ -1410,7 +1957,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>126</v>
       </c>
@@ -1418,7 +1965,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>130</v>
       </c>
@@ -1426,7 +1973,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>132</v>
       </c>
@@ -1466,7 +2013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>10</v>
       </c>
@@ -1474,7 +2021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
@@ -1514,7 +2061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -1522,7 +2069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>28</v>
       </c>
@@ -1530,7 +2077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>31</v>
       </c>
@@ -1570,7 +2117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" s="2" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>45</v>
       </c>
@@ -1578,7 +2125,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="2" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" s="2" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>49</v>
       </c>
@@ -1642,7 +2189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>69</v>
       </c>
@@ -1650,7 +2197,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>71</v>
       </c>
@@ -1658,7 +2205,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -1714,7 +2261,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>89</v>
       </c>
@@ -1722,7 +2269,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>92</v>
       </c>
@@ -1730,7 +2277,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -1786,7 +2333,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>110</v>
       </c>
@@ -1826,7 +2373,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>118</v>
       </c>
@@ -1850,7 +2397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>128</v>
       </c>
@@ -1859,7 +2406,77 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B100" xr:uid="{E011E197-E0E7-43E6-B925-6CB10EB2E647}"/>
+  <autoFilter ref="A1:B100" xr:uid="{E011E197-E0E7-43E6-B925-6CB10EB2E647}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="101-22-"/>
+        <filter val="101-23-"/>
+        <filter val="101-24-"/>
+        <filter val="101-25-"/>
+        <filter val="101-26-"/>
+        <filter val="109-20-"/>
+        <filter val="109-23-"/>
+        <filter val="109-24-"/>
+        <filter val="109-25-"/>
+        <filter val="109-26-"/>
+        <filter val="109-27-"/>
+        <filter val="109-28-"/>
+        <filter val="109-29-"/>
+        <filter val="110-22-"/>
+        <filter val="110-23-"/>
+        <filter val="110-24-"/>
+        <filter val="110-25-"/>
+        <filter val="110-26-"/>
+        <filter val="111-22-"/>
+        <filter val="111-23-"/>
+        <filter val="111-24-"/>
+        <filter val="111-25-"/>
+        <filter val="112-22-"/>
+        <filter val="112-23-"/>
+        <filter val="112-24-"/>
+        <filter val="113-23-"/>
+        <filter val="113-24-"/>
+        <filter val="113-26-"/>
+        <filter val="114-22-"/>
+        <filter val="114-23-"/>
+        <filter val="114-24-"/>
+        <filter val="114-25-"/>
+        <filter val="205-22-"/>
+        <filter val="205-23-"/>
+        <filter val="205-24-"/>
+        <filter val="205-25-"/>
+        <filter val="206-22-"/>
+        <filter val="206-23-"/>
+        <filter val="206-24-"/>
+        <filter val="206-25-"/>
+        <filter val="208-22-"/>
+        <filter val="208-23-"/>
+        <filter val="208-24-"/>
+        <filter val="208-25-"/>
+        <filter val="208-26-"/>
+        <filter val="208-27-"/>
+        <filter val="208-28-"/>
+        <filter val="303-23-"/>
+        <filter val="303-24-"/>
+        <filter val="303-25-"/>
+        <filter val="303-26-"/>
+        <filter val="303-27-"/>
+        <filter val="303-28-"/>
+        <filter val="304-22-"/>
+        <filter val="304-23-"/>
+        <filter val="304-24-"/>
+        <filter val="304-25-"/>
+        <filter val="304-26-"/>
+        <filter val="304-27-"/>
+        <filter val="307-22-"/>
+        <filter val="307-23-"/>
+        <filter val="307-24-"/>
+        <filter val="307-25-"/>
+        <filter val="316-22"/>
+        <filter val="316-23"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="3.937007874015748E-2" footer="3.937007874015748E-2"/>
   <pageSetup scale="77" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1867,7 +2484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1AA522-AE76-4FBD-B716-FE8F7757A30D}">
   <dimension ref="A1:B6"/>
   <sheetViews>

--- a/Data/circuitos.xlsx
+++ b/Data/circuitos.xlsx
@@ -660,6 +660,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
